--- a/artfynd/A 33148-2019.xlsx
+++ b/artfynd/A 33148-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,6 +1167,108 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112266830</v>
+      </c>
+      <c r="B6" t="n">
+        <v>102158</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1563</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bohuslind</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tilia platyphyllos</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scop.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Skäggstorp, Boh</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>313436</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6428463</v>
+      </c>
+      <c r="S6" t="n">
+        <v>50</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Kungälv</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Bohuslän</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Solberga</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Bengt Westman</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Bengt Westman</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33148-2019.xlsx
+++ b/artfynd/A 33148-2019.xlsx
@@ -1172,7 +1172,7 @@
         <v>112266830</v>
       </c>
       <c r="B6" t="n">
-        <v>102158</v>
+        <v>102184</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
